--- a/config_1.26/banner_style_ui.xlsx
+++ b/config_1.26/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1261,7 +1261,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1617,9 +1617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4381,10 +4381,10 @@
         <v>22</v>
       </c>
       <c r="K90" s="42">
-        <v>1611014400</v>
+        <v>1611619200</v>
       </c>
       <c r="L90" s="42">
-        <v>1611590399</v>
+        <v>1612195199</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4421,12 +4421,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4443,70 +4469,44 @@
 </comments>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.26/banner_style_ui.xlsx
+++ b/config_1.26/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>多页活动弹出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","panel"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1265,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1617,9 +1621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4374,7 +4378,7 @@
       </c>
       <c r="G90" s="41"/>
       <c r="H90" s="41" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="I90" s="41"/>
       <c r="J90" s="41" t="s">
@@ -4421,11 +4425,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4437,19 +4441,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4470,13 +4472,15 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4488,13 +4492,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4506,7 +4510,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>